--- a/MSG_Temlate.xlsx
+++ b/MSG_Temlate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\MSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2047E37-31E7-46BF-80E2-4D5E65E8832A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187FF7C-D2AC-4BE6-AF42-D1DDC1D1889F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,31 +1353,28 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,25 +1404,40 @@
     <xf numFmtId="14" fontId="13" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="11" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,6 +1457,12 @@
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="8" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1467,25 +1485,16 @@
     <xf numFmtId="1" fontId="14" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="8" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="11" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,15 +1504,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15731,7 +15731,7 @@
       <pane xSplit="15" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15758,38 +15758,38 @@
       <c r="A1" s="39">
         <v>45149</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="83" t="s">
         <v>56</v>
       </c>
       <c r="R1" s="26"/>
@@ -15798,10 +15798,10 @@
       <c r="A2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
@@ -15832,8 +15832,8 @@
       <c r="O2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
       <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="18">
@@ -15901,52 +15901,52 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:18" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="72">
         <v>0</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="74">
         <f>IF((SUMIFS(6:6,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q6)&gt;D6,D6,SUMIFS(6:6,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="76">
         <f>IF(SUMIFS(7:7,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q7&gt;D6,D6,SUMIFS(7:7,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q7)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="78">
         <f t="shared" ref="H6" si="0">G6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="80">
         <f t="shared" ref="I6" si="1">D6-G6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="84">
         <f t="shared" ref="J6" si="2">IFERROR(G6/D6,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="84">
         <f t="shared" ref="K6" si="3">IFERROR(G6/F6,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="86">
         <f>IFERROR(VALUE(K6),"-")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="88">
         <v>44778</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="88">
         <v>44778</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="66">
         <f>IF(OR(M6="",N6=""),"-",N6-M6+1)</f>
         <v>1</v>
       </c>
@@ -15956,24 +15956,24 @@
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:18" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="70" t="str">
+      <c r="A7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="85" t="str">
         <f>IFERROR(#REF!/#REF!,"-")</f>
         <v>-</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="68"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="13" t="s">
         <v>6</v>
       </c>
@@ -15989,20 +15989,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:P2"/>
@@ -16013,6 +15999,20 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -16097,12 +16097,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1">
@@ -16129,32 +16129,32 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" customHeight="1">
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="90" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" customHeight="1">
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="E9" s="109" t="e">
+      <c r="E9" s="91" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" s="20" customFormat="1" ht="15.75">
       <c r="A10" s="56"/>
@@ -16184,178 +16184,178 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="104" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1">
       <c r="A17" s="54"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1">
       <c r="A18" s="54"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="90" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1">
       <c r="A19" s="54"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1">
       <c r="A20" s="54"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="90" t="s">
+      <c r="E20" s="92"/>
+      <c r="F20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1">
       <c r="A21" s="54"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" s="54"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="90" t="s">
+      <c r="E22" s="92"/>
+      <c r="F22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" s="54"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="54"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="90" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="54"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="90" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="54"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="18" t="s">
         <v>6</v>
       </c>
@@ -16370,12 +16370,12 @@
       <c r="C28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="91" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="17" t="s">
         <v>5</v>
       </c>
@@ -16390,276 +16390,276 @@
       <c r="C29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
       <c r="I29" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1">
       <c r="A30" s="54"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="91" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="54"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="100"/>
       <c r="I31" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="104" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="54"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
       <c r="A34" s="54"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="97" t="s">
+      <c r="E34" s="92"/>
+      <c r="F34" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1">
       <c r="A35" s="54"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
       <c r="A36" s="54"/>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="54"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
       <c r="A38" s="54"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="90" t="s">
+      <c r="E38" s="92"/>
+      <c r="F38" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1">
       <c r="A39" s="54"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
       <c r="A40" s="54"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="90" t="s">
+      <c r="E40" s="92"/>
+      <c r="F40" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1">
       <c r="A41" s="54"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
       <c r="A42" s="54"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="90" t="s">
+      <c r="E42" s="92"/>
+      <c r="F42" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" s="54"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
       <c r="I43" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
       <c r="A44" s="54"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="90" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1">
       <c r="A45" s="54"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
       <c r="A46" s="54"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="90" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
       <c r="I46" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1">
       <c r="A47" s="54"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
       <c r="I47" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
       <c r="A48" s="54"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="90" t="s">
+      <c r="E48" s="92"/>
+      <c r="F48" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
       <c r="I48" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1">
       <c r="A49" s="54"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
       <c r="I49" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
       <c r="A50" s="54"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="90" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
       <c r="I50" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="A51" s="54"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
       <c r="I51" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
       <c r="A52" s="54"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="104" t="s">
+      <c r="E52" s="92"/>
+      <c r="F52" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
       <c r="I52" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1">
       <c r="A53" s="54"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
       <c r="I53" s="33" t="s">
         <v>6</v>
       </c>
@@ -16692,110 +16692,110 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="54"/>
-      <c r="E56" s="105" t="s">
+      <c r="E56" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
       <c r="I56" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
       <c r="A57" s="54"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
       <c r="I57" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
       <c r="A58" s="54"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="104" t="s">
+      <c r="E58" s="92"/>
+      <c r="F58" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
       <c r="I58" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1">
       <c r="A59" s="54"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
       <c r="I59" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
       <c r="A60" s="54"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="104" t="s">
+      <c r="E60" s="92"/>
+      <c r="F60" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
       <c r="I60" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1">
       <c r="A61" s="54"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
       <c r="I61" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
       <c r="A62" s="54"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="97" t="s">
+      <c r="E62" s="92"/>
+      <c r="F62" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1">
       <c r="A63" s="54"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
       <c r="I63" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="5:9" ht="16.5" customHeight="1">
-      <c r="E65" s="98" t="s">
+      <c r="E65" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="100"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106"/>
       <c r="I65" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="5:9">
-      <c r="E66" s="101"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="109"/>
       <c r="I66" s="34" t="s">
         <v>6</v>
       </c>
@@ -16807,25 +16807,6 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:E35"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="F36:H37"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="F40:H41"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="F38:H39"/>
-    <mergeCell ref="F30:H31"/>
     <mergeCell ref="F42:H43"/>
     <mergeCell ref="F34:H35"/>
     <mergeCell ref="E65:H66"/>
@@ -16840,6 +16821,25 @@
     <mergeCell ref="F60:H61"/>
     <mergeCell ref="F62:H63"/>
     <mergeCell ref="E36:E53"/>
+    <mergeCell ref="F36:H37"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="F40:H41"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="F38:H39"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:E35"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F28:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16901,12 +16901,12 @@
       <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="1"/>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -16941,36 +16941,36 @@
       <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" customHeight="1">
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="90" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" customHeight="1">
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="16"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="E9" s="109" t="e">
+      <c r="E9" s="91" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="16"/>
       <c r="K9" s="25" t="s">
         <v>16</v>
@@ -17008,14 +17008,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="54"/>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="17" t="s">
         <v>5</v>
       </c>
@@ -17027,10 +17027,10 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="54"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="18" t="s">
         <v>6</v>
       </c>
@@ -17042,12 +17042,12 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="54"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="104" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="32" t="s">
         <v>5</v>
       </c>
@@ -17059,10 +17059,10 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="54"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="33" t="s">
         <v>6</v>
       </c>
@@ -17074,12 +17074,12 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="54"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="17" t="s">
         <v>5</v>
       </c>
@@ -17091,10 +17091,10 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="54"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18" t="s">
         <v>6</v>
       </c>
@@ -17106,12 +17106,12 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="54"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="90" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="17" t="s">
         <v>5</v>
       </c>
@@ -17123,10 +17123,10 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="54"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="18" t="s">
         <v>6</v>
       </c>
@@ -17138,12 +17138,12 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="54"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="90" t="s">
+      <c r="E20" s="92"/>
+      <c r="F20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="17" t="s">
         <v>5</v>
       </c>
@@ -17155,10 +17155,10 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="54"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="18" t="s">
         <v>6</v>
       </c>
@@ -17170,12 +17170,12 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="54"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="90" t="s">
+      <c r="E22" s="92"/>
+      <c r="F22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="17" t="s">
         <v>5</v>
       </c>
@@ -17187,10 +17187,10 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="54"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="18" t="s">
         <v>6</v>
       </c>
@@ -17202,12 +17202,12 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="54"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="90" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="17" t="s">
         <v>5</v>
       </c>
@@ -17219,10 +17219,10 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="54"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="18" t="s">
         <v>6</v>
       </c>
@@ -17234,12 +17234,12 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="54"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="90" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="17" t="s">
         <v>5</v>
       </c>
@@ -17251,10 +17251,10 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="54"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="18" t="s">
         <v>6</v>
       </c>
@@ -17274,12 +17274,12 @@
       <c r="C28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="91" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="17" t="s">
         <v>5</v>
       </c>
@@ -17299,10 +17299,10 @@
       <c r="C29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
       <c r="I29" s="18" t="s">
         <v>6</v>
       </c>
@@ -17314,12 +17314,12 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="54"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="91" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="17" t="s">
         <v>5</v>
       </c>
@@ -17331,10 +17331,10 @@
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="54"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="100"/>
       <c r="I31" s="18" t="s">
         <v>6</v>
       </c>
@@ -17346,12 +17346,12 @@
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="54"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="104" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="32" t="s">
         <v>5</v>
       </c>
@@ -17363,10 +17363,10 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="54"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="33" t="s">
         <v>6</v>
       </c>
@@ -17378,12 +17378,12 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="54"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="97" t="s">
+      <c r="E34" s="92"/>
+      <c r="F34" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="53" t="s">
         <v>5</v>
       </c>
@@ -17398,10 +17398,10 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="54"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="34" t="s">
         <v>6</v>
       </c>
@@ -17416,14 +17416,14 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="54"/>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="17" t="s">
         <v>5</v>
       </c>
@@ -17435,10 +17435,10 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="54"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="18" t="s">
         <v>6</v>
       </c>
@@ -17450,12 +17450,12 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="54"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="90" t="s">
+      <c r="E38" s="92"/>
+      <c r="F38" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="17" t="s">
         <v>5</v>
       </c>
@@ -17467,10 +17467,10 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="54"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="18" t="s">
         <v>6</v>
       </c>
@@ -17482,12 +17482,12 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="54"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="90" t="s">
+      <c r="E40" s="92"/>
+      <c r="F40" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="17" t="s">
         <v>5</v>
       </c>
@@ -17499,10 +17499,10 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="54"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="18" t="s">
         <v>6</v>
       </c>
@@ -17514,12 +17514,12 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="54"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="90" t="s">
+      <c r="E42" s="92"/>
+      <c r="F42" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="17" t="s">
         <v>5</v>
       </c>
@@ -17531,10 +17531,10 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="54"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
       <c r="I43" s="18" t="s">
         <v>6</v>
       </c>
@@ -17546,12 +17546,12 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="54"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="90" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="17" t="s">
         <v>5</v>
       </c>
@@ -17563,10 +17563,10 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="54"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="18" t="s">
         <v>6</v>
       </c>
@@ -17578,12 +17578,12 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="54"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="90" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
       <c r="I46" s="17" t="s">
         <v>5</v>
       </c>
@@ -17595,10 +17595,10 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="54"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
       <c r="I47" s="18" t="s">
         <v>6</v>
       </c>
@@ -17610,12 +17610,12 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="54"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="90" t="s">
+      <c r="E48" s="92"/>
+      <c r="F48" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
       <c r="I48" s="17" t="s">
         <v>5</v>
       </c>
@@ -17627,10 +17627,10 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A49" s="54"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
       <c r="I49" s="18" t="s">
         <v>6</v>
       </c>
@@ -17642,12 +17642,12 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="54"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="90" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
       <c r="I50" s="17" t="s">
         <v>5</v>
       </c>
@@ -17659,10 +17659,10 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="54"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
       <c r="I51" s="18" t="s">
         <v>6</v>
       </c>
@@ -17674,12 +17674,12 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="54"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="104" t="s">
+      <c r="E52" s="92"/>
+      <c r="F52" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
       <c r="I52" s="32" t="s">
         <v>5</v>
       </c>
@@ -17694,10 +17694,10 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="54"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
       <c r="I53" s="33" t="s">
         <v>6</v>
       </c>
@@ -17742,14 +17742,14 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A56" s="54"/>
-      <c r="E56" s="105" t="s">
+      <c r="E56" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
       <c r="I56" s="17" t="s">
         <v>5</v>
       </c>
@@ -17761,10 +17761,10 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A57" s="54"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
       <c r="I57" s="18" t="s">
         <v>6</v>
       </c>
@@ -17776,12 +17776,12 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A58" s="54"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="104" t="s">
+      <c r="E58" s="92"/>
+      <c r="F58" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
       <c r="I58" s="32" t="s">
         <v>5</v>
       </c>
@@ -17793,10 +17793,10 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A59" s="54"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
       <c r="I59" s="33" t="s">
         <v>6</v>
       </c>
@@ -17808,12 +17808,12 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="54"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="104" t="s">
+      <c r="E60" s="92"/>
+      <c r="F60" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
       <c r="I60" s="32" t="s">
         <v>5</v>
       </c>
@@ -17825,10 +17825,10 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="54"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
       <c r="I61" s="33" t="s">
         <v>6</v>
       </c>
@@ -17840,12 +17840,12 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A62" s="54"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="97" t="s">
+      <c r="E62" s="92"/>
+      <c r="F62" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="53" t="s">
         <v>5</v>
       </c>
@@ -17860,10 +17860,10 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A63" s="54"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
       <c r="I63" s="34" t="s">
         <v>6</v>
       </c>
@@ -17878,12 +17878,12 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="65" spans="5:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E65" s="98" t="s">
+      <c r="E65" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="100"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106"/>
       <c r="I65" s="53" t="s">
         <v>5</v>
       </c>
@@ -17897,10 +17897,10 @@
       </c>
     </row>
     <row r="66" spans="5:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="E66" s="101"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="109"/>
       <c r="I66" s="34" t="s">
         <v>6</v>
       </c>
@@ -17923,6 +17923,23 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="F44:H45"/>
+    <mergeCell ref="F48:H49"/>
+    <mergeCell ref="F50:H51"/>
+    <mergeCell ref="F52:H53"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:E35"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="F28:H29"/>
     <mergeCell ref="E65:H66"/>
     <mergeCell ref="E36:E53"/>
     <mergeCell ref="F36:H37"/>
@@ -17939,23 +17956,6 @@
     <mergeCell ref="F46:H47"/>
     <mergeCell ref="F40:H41"/>
     <mergeCell ref="F42:H43"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:E35"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="F34:H35"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="F44:H45"/>
-    <mergeCell ref="F48:H49"/>
-    <mergeCell ref="F50:H51"/>
-    <mergeCell ref="F52:H53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18008,38 +18008,38 @@
       <c r="A1" s="39">
         <v>45149</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="83" t="s">
         <v>56</v>
       </c>
       <c r="R1" s="51"/>
@@ -18049,10 +18049,10 @@
       <c r="A2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="52" t="s">
         <v>5</v>
       </c>
@@ -18083,8 +18083,8 @@
       <c r="O2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
       <c r="R2" s="24" t="s">
         <v>51</v>
       </c>
@@ -18172,56 +18172,56 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A6" s="110">
+      <c r="A6" s="111">
         <v>1</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="115">
         <v>0</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="74">
         <f>IF((SUMIFS(6:6,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q6)&gt;D6,D6,SUMIFS(6:6,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="116">
         <f>IF(SUMIFS(7:7,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q7&gt;D6,D6,SUMIFS(7:7,$2:$2,"&gt;="&amp;DATEVALUE("01.01.2021"),$2:$2,"&lt;="&amp;$A$1) + $Q7)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="112">
         <f t="shared" ref="H6" si="0">G6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="112">
         <f t="shared" ref="I6" si="1">D6-G6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="116">
+      <c r="J6" s="113">
         <f t="shared" ref="J6" si="2">IFERROR(G6/D6,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="116">
+      <c r="K6" s="113">
         <f t="shared" ref="K6" si="3">IFERROR(G6/F6,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="86">
         <f>IFERROR(VALUE(K6),"-")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="110">
         <v>44778</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N6" s="110">
         <v>44778</v>
       </c>
-      <c r="O6" s="110">
+      <c r="O6" s="111">
         <f>IF(OR(M6="",N6=""),"-",N6-M6+1)</f>
         <v>1</v>
       </c>
@@ -18236,27 +18236,27 @@
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="110"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116" t="str">
+      <c r="A7" s="111"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113" t="str">
         <f>IFERROR(#REF!/#REF!,"-")</f>
         <v>-</v>
       </c>
-      <c r="K7" s="116" t="str">
+      <c r="K7" s="113" t="str">
         <f>IFERROR(#REF!/#REF!,"-")</f>
         <v>-</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="110"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
       <c r="P7" s="13" t="s">
         <v>6</v>
       </c>
@@ -18277,14 +18277,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -18301,6 +18293,14 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="8" scale="31" fitToHeight="0" orientation="landscape" r:id="rId1"/>
